--- a/xxfs/evidence.xlsx
+++ b/xxfs/evidence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="8" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="90">
   <si>
     <t>TeamName</t>
   </si>
@@ -76,7 +76,7 @@
     <t>juno1c275fwntd765htsaqzffv262yxj99rr6zuy8g4</t>
   </si>
   <si>
-    <t>uptick1c275fwntd765htsaqzffv262yxj99rr68gm8kc</t>
+    <t>uptick13rxlahprpcg7qgkelaahkkgt0unqd7xgqm4yny</t>
   </si>
   <si>
     <t>omniflix1c275fwntd765htsaqzffv262yxj99rr6fsk9ch</t>
@@ -91,43 +91,217 @@
     <t>ClassID</t>
   </si>
   <si>
-    <t>tx hash on irisnet</t>
-  </si>
-  <si>
-    <t>class id you issued</t>
+    <t>49CE79CB94275A0D7749200E56387A110F833A53D8E1BC52336EB72295BEB14C</t>
+  </si>
+  <si>
+    <t>xxfsnft</t>
   </si>
   <si>
     <t>NFTID</t>
   </si>
   <si>
-    <t>nft id you minted</t>
+    <t>2D16B286CEFE4CC5F2D52DCF4329346D88393C14BC4E67CD1C6723731841ECBD</t>
+  </si>
+  <si>
+    <t>xxfsA1</t>
+  </si>
+  <si>
+    <t>3B1FE4EDAFA270557F80CB8C02C54DB08A7492F835A78A6CC0A8C0169A74C20E</t>
+  </si>
+  <si>
+    <t>xxfsA3</t>
   </si>
   <si>
     <t>ChainID</t>
   </si>
   <si>
-    <t>ibc class on dest chain</t>
-  </si>
-  <si>
-    <t>nft id</t>
-  </si>
-  <si>
-    <t>dest chain id</t>
-  </si>
-  <si>
-    <t>tx hash on dest chain</t>
-  </si>
-  <si>
-    <t>ibc class on chain</t>
-  </si>
-  <si>
-    <t>tx hash on that chain</t>
-  </si>
-  <si>
-    <t>chain id</t>
-  </si>
-  <si>
-    <t>tx hash on that chain	chain id</t>
+    <t>729D4E272AD86B9500970CDCB201BD9C10A3F7DC75DA56C187DD2FD8DF97DE98</t>
+  </si>
+  <si>
+    <t>stars14meclvnk9hkawrh2rq8g9d9cydp2n9axkll43uvfykp6ls0n4wws7cctf5</t>
+  </si>
+  <si>
+    <t>elgafar-1</t>
+  </si>
+  <si>
+    <t>749DD5585ADC96B1FBA5F3F1A8D1C13AD9A256E492A391732DB2EABAC720D44A</t>
+  </si>
+  <si>
+    <t>ibc/5BBF64170F0762219B44CC78441A914AC9D455E26ABC35369E7B10FED6CDD45D</t>
+  </si>
+  <si>
+    <t>uptick_7000-2</t>
+  </si>
+  <si>
+    <t>0E8D8CE29BAFB22CCAD5EA2CD8944A08B02A82A77964396EEDD4DBF30ED576AA</t>
+  </si>
+  <si>
+    <t>515D73A76DFFA98E857D94D7BB41152FF0D60E9111A684E0190A164E55A06D9A</t>
+  </si>
+  <si>
+    <t>ibc/77FC4F4E94A0A6517A0F15B21F1463679423527C4B7F6CAFA73060DAEE954CBF</t>
+  </si>
+  <si>
+    <t>xxfsgona7a1</t>
+  </si>
+  <si>
+    <t>ibc/824C282DABD6CBE2AC8FDFEE7F9914958638DE5DC183D60C39444A3A087CF1C7</t>
+  </si>
+  <si>
+    <t>xxfsgona8a2</t>
+  </si>
+  <si>
+    <t>ibc/2E77F38A57A9961E5BE9E0E0FAB84530B5462B4DF2CC62B727390C1699C94F83</t>
+  </si>
+  <si>
+    <t>xxfsgona9a3</t>
+  </si>
+  <si>
+    <t>ibc/C78D87A485BB4A9B3BEE00FB760E37DDD4C7F87D5D883F68FCFA069BB5ACA8C8</t>
+  </si>
+  <si>
+    <t>xxfsgona10a4</t>
+  </si>
+  <si>
+    <t>ibc/BC43CFFA30302368124AD8CAE90740CD7C28C8C4EAC557F20B15902F03693C1D</t>
+  </si>
+  <si>
+    <t>xxfsgona11a5</t>
+  </si>
+  <si>
+    <t>ibc/97EFA9E3F991544E75773B5EC4C9E84D81D88607EB7C15BCD9111572E545C30F</t>
+  </si>
+  <si>
+    <t>xxfsgona12a6</t>
+  </si>
+  <si>
+    <t>F190105944F0F34B9144B41B8048421157DA229EB318A6B9B9C2808C90C8A1CD</t>
+  </si>
+  <si>
+    <t>gon-irishub-1</t>
+  </si>
+  <si>
+    <t>83A9CBCAA39095246BE89C36F1CD7C1DFFEA0EC8B2776FE90CF44DEDA9F15727</t>
+  </si>
+  <si>
+    <t>6D45AA1ACDFBA23BA097A0CAD8058BCD2272C1B94126B90F29EB81E9D5F09B4E</t>
+  </si>
+  <si>
+    <t>74CD4E2BD032E4E914EA14ECB574FDB74A4A2F8D12EFCC37E12C2D750DB1BB05</t>
+  </si>
+  <si>
+    <t>81447E4724477DC131899C94023E6EC8E1DE254CF30DDE0AFBF5D631DBB46C10</t>
+  </si>
+  <si>
+    <t>B2BA0AE1E663C138545EBB22B26B499335EA58EE3CE2E80C93B5512AF23BB91F</t>
+  </si>
+  <si>
+    <t>2C075D2065D632D721E3BC40013EBDE74CBB1CF740292FF20937FACEE9DE6E27</t>
+  </si>
+  <si>
+    <t>gon-flixnet-1</t>
+  </si>
+  <si>
+    <t>B9B5A1A8781D52F93E21AFBA840F677EDDE5AD0BC043AC63B4F2F767AF904EBB</t>
+  </si>
+  <si>
+    <t>411DD9C91A5C737CAAE92C3B722DEDEF0FF3B4BADC08D0B89C30DC3EF2DC4A60</t>
+  </si>
+  <si>
+    <t>5174310C98329BEE55B1FC39E9D3258316DADB754B8A68E59A2978427F32E636</t>
+  </si>
+  <si>
+    <t>uni-6</t>
+  </si>
+  <si>
+    <t>66441CA07144B5E7B4138E978648ECAD143EA9ECE4CDBA98331A37C3D8ABC051</t>
+  </si>
+  <si>
+    <t>2FBCBA18E0D2FC3E86B29C1B837995A8DBFE2D732FB94709ABAE7C12DBAB6887</t>
+  </si>
+  <si>
+    <t>A876944DDCC83B96B857407DB14C6B58457E7B37AA06E858E6A0A73D1F77769B</t>
+  </si>
+  <si>
+    <t>9B7C627D0889E614204A94926EA0B8866277B0B132F2C2387C3AF74E134CF64C</t>
+  </si>
+  <si>
+    <t>541CE43ADD5194910AAD0BC3D79040E2045CB8B02222A16718F63B05B0B331E6</t>
+  </si>
+  <si>
+    <t>48A2B87AF8687FF5CC500E720634F6B4BB3E0CFA53C5CB1E4DBA07A4EED2AAC6</t>
+  </si>
+  <si>
+    <t>F2746824784D51F2333A351BBBBE3349F9C81BA39A311CF8B531EB96A39C4225</t>
+  </si>
+  <si>
+    <t>6CFC7724E8325DE5A8F6D7AB7E82527A4BF9015E59230B68DA1CBD9F582D2393</t>
+  </si>
+  <si>
+    <t>02B5212490ECC43F874ADEC5FDF29EAF20191B17B7F307FCD4832633662576C3</t>
+  </si>
+  <si>
+    <t>09C02E55A6C66375947121DCAFC2A435F6D63BB6B995C80B24D512E75BA94C47</t>
+  </si>
+  <si>
+    <t>ACF41BFE996E78C029C4B17FA8C1CFF3349D93785BC74A7E9FA0BD9CD93E7077</t>
+  </si>
+  <si>
+    <t>B306C38A5F148F29BB3ED87EC9D8888B257A418C0BC4CC65B9B363C939DB46F2</t>
+  </si>
+  <si>
+    <t>3F21C0F4ECE24CA922B13D98A5FC73FB0BD6364539F24315AB0FCF298FA16D1A</t>
+  </si>
+  <si>
+    <t>A37A5638A0FDFD34D98C45735807CCDDFA478B418388754A47EC2529E3EEBB78</t>
+  </si>
+  <si>
+    <t>65D471D8F58434B7882152CC82B2892FC3801740C81A3D3CD77B3C7E46EE9659</t>
+  </si>
+  <si>
+    <t>59D01A16D17D443C2E326F2A2CC55C694867CA04D9DFFD774094698CAD73AA62</t>
+  </si>
+  <si>
+    <t>D6AB639F7C813115D452C01F302B1953B3802888F81CCE82316090A59CE44730</t>
+  </si>
+  <si>
+    <t>3F1AE6F1C47325B00AF01258281F804DAE8FD17B9AA5C10FFBAE758B199A4249</t>
+  </si>
+  <si>
+    <t>385E81C5D5A0C2784C7E19E248DD4243B3466352596C6C97835F20DEDBF8D4C1</t>
+  </si>
+  <si>
+    <t>22F73BF2DDB1B69B636CA8C9A3C27AAF6E6787D070B6139D2F8A22651C5B65CD</t>
+  </si>
+  <si>
+    <t>4ACBC9B78F96E577B95B78A64B2F99E7FF18569E5D3A717DEEF0DEA5E7111133</t>
+  </si>
+  <si>
+    <t>65B93131DAA088EB362807317CE309BFFB65F75E66930C8597254F01ABD9D401</t>
+  </si>
+  <si>
+    <t>A1DFD596EA0345E16950852921144D8EC78967A72ED05093AA2801370463EBE9</t>
+  </si>
+  <si>
+    <t>9DB8E7BB9993D48850A4957E017D493F916654AF342DDD487B9D5556B0C02A31</t>
+  </si>
+  <si>
+    <t>6F616E11DF10B2F1B49A15524B4230DF7816A06EED785E0D73E0DBEA1B46403F</t>
+  </si>
+  <si>
+    <t>4A50F13FA212D0E67BC7915160956DBDC7066666CC71C5D143736210F565DFCA</t>
+  </si>
+  <si>
+    <t>F2C95CE4583EC9ABDC4DE6FAADE658CB6716C944D6706909317FC710DC38AD5C</t>
+  </si>
+  <si>
+    <t>A48A8FD719748500C8BBE25FFD8EF8BDE197D845DFD7D642F60DEBC2B77C9D81</t>
+  </si>
+  <si>
+    <t>E8D7E6953A2B8C9723CF0186AEA60EA89C51C4ACC9E4B3839E9D7E139D85ECBF</t>
+  </si>
+  <si>
+    <t>5ECC45DB73CD602715BF54B7DA313A954FC84991A88DA46A3D7EC9C6354119B3</t>
   </si>
   <si>
     <t>The first Interchain NFT-Transfer TxHash</t>
@@ -1139,8 +1313,8 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
@@ -1218,7 +1392,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1237,10 +1411,10 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1257,7 +1431,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1276,10 +1450,10 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1296,7 +1470,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1315,10 +1489,10 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1335,7 +1509,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1354,10 +1528,10 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1371,13 +1545,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.0083333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.4333333333333" style="1" customWidth="1"/>
@@ -1388,25 +1562,39 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A4" s="3" t="s">
-        <v>29</v>
+    </row>
+    <row r="4" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1420,13 +1608,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.0083333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.4333333333333" style="1" customWidth="1"/>
@@ -1437,25 +1625,39 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:1">
+        <v>51</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>52</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1469,13 +1671,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.0083333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.4333333333333" style="1" customWidth="1"/>
@@ -1486,25 +1688,39 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:1">
+        <v>56</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>58</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1518,13 +1734,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.0083333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.4333333333333" style="1" customWidth="1"/>
@@ -1535,25 +1751,39 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A4" s="3" t="s">
-        <v>29</v>
+    </row>
+    <row r="5" ht="14.25" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1567,13 +1797,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.0083333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.4333333333333" style="1" customWidth="1"/>
@@ -1584,25 +1814,39 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:1">
+    </row>
+    <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>66</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1616,13 +1860,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.0083333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.4333333333333" style="1" customWidth="1"/>
@@ -1633,25 +1877,39 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:1">
+        <v>69</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>70</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1668,7 +1926,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1703,13 +1961,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="16.0083333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.4333333333333" style="1" customWidth="1"/>
@@ -1720,25 +1978,56 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:1">
+    </row>
+    <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>74</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="1:8">
+      <c r="A5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" ht="14.25" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="1:2">
+      <c r="A7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1752,13 +2041,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.0083333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.4333333333333" style="1" customWidth="1"/>
@@ -1769,25 +2058,55 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A4" s="3" t="s">
-        <v>29</v>
+    </row>
+    <row r="5" ht="14.25" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="1:2">
+      <c r="A7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1804,7 +2123,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1819,12 +2138,12 @@
     </row>
     <row r="2" ht="16.4" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1841,7 +2160,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1856,12 +2175,12 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1893,12 +2212,12 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1930,12 +2249,12 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1949,13 +2268,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="2" width="17.8583333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.0083333333333" style="1" customWidth="1"/>
@@ -1974,13 +2293,24 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1997,7 +2327,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2018,21 +2348,21 @@
         <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2049,7 +2379,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2070,21 +2400,21 @@
         <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2101,7 +2431,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2122,21 +2452,21 @@
         <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2153,7 +2483,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2175,21 +2505,21 @@
         <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2206,7 +2536,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -2225,10 +2555,10 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -2245,7 +2575,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -2264,10 +2594,10 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/xxfs/evidence.xlsx
+++ b/xxfs/evidence.xlsx
@@ -64,25 +64,25 @@
     <t>Community</t>
   </si>
   <si>
-    <t>ImageineLerning</t>
-  </si>
-  <si>
-    <t>iaa1c275fwntd765htsaqzffv262yxj99rr6pv8ddc</t>
-  </si>
-  <si>
-    <t>stars1c275fwntd765htsaqzffv262yxj99rr6qjspyc</t>
-  </si>
-  <si>
-    <t>juno1c275fwntd765htsaqzffv262yxj99rr6zuy8g4</t>
-  </si>
-  <si>
-    <t>uptick1c275fwntd765htsaqzffv262yxj99rr68gm8kc</t>
-  </si>
-  <si>
-    <t>omniflix1c275fwntd765htsaqzffv262yxj99rr6fsk9ch</t>
-  </si>
-  <si>
-    <t>gcx#2489</t>
+    <t>The Coding Squad</t>
+  </si>
+  <si>
+    <t>iaa1gtuu2ux5kvmprt8skyvhwmrth3xs84n9jy2jyl</t>
+  </si>
+  <si>
+    <t>stars1gtuu2ux5kvmprt8skyvhwmrth3xs84n9n6a7dl</t>
+  </si>
+  <si>
+    <t>juno1gtuu2ux5kvmprt8skyvhwmrth3xs84n935fcpj</t>
+  </si>
+  <si>
+    <t>uptick16m3p0ewytcqank0hnd82rp35tsqulmntjpgtfe</t>
+  </si>
+  <si>
+    <t>omniflix1gtuu2ux5kvmprt8skyvhwmrth3xs84n96cm63s</t>
+  </si>
+  <si>
+    <t>Axlvr#1089</t>
   </si>
   <si>
     <t>TxHash</t>
@@ -1140,7 +1140,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>

--- a/xxfs/evidence.xlsx
+++ b/xxfs/evidence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="8" activeTab="20"/>
+    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="8" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -2043,7 +2043,7 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
@@ -2122,8 +2122,8 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -2327,7 +2327,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2379,7 +2379,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2431,7 +2431,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2460,7 +2460,7 @@
         <v>31</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>21</v>
@@ -2483,7 +2483,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2513,7 +2513,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>23</v>

--- a/xxfs/evidence.xlsx
+++ b/xxfs/evidence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="10125" windowHeight="15540" firstSheet="18" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="86">
   <si>
     <t>TeamName</t>
   </si>
@@ -91,43 +91,205 @@
     <t>ClassID</t>
   </si>
   <si>
-    <t>tx hash on irisnet</t>
-  </si>
-  <si>
-    <t>class id you issued</t>
+    <t>1DC74FE7E67F2D0CFCCB54C4F012DC955A8DB130B17CCADCA1D5955CFB5A7DFC</t>
+  </si>
+  <si>
+    <t>mikeynft</t>
   </si>
   <si>
     <t>NFTID</t>
   </si>
   <si>
-    <t>nft id you minted</t>
+    <t>990EFF8D12A27C0D594473F88AADC2CCF5D40F8AE512AF9B943D87FDA7E4E74C</t>
+  </si>
+  <si>
+    <t>a2/1</t>
+  </si>
+  <si>
+    <t>2A53E2EB008A063B7C7B223B6C762EBF2B25F329394EC7C41A70CCFE0D7EE039</t>
+  </si>
+  <si>
+    <t>a2/2</t>
   </si>
   <si>
     <t>ChainID</t>
   </si>
   <si>
-    <t>ibc class on dest chain</t>
-  </si>
-  <si>
-    <t>nft id</t>
-  </si>
-  <si>
-    <t>dest chain id</t>
-  </si>
-  <si>
-    <t>tx hash on dest chain</t>
-  </si>
-  <si>
-    <t>ibc class on chain</t>
-  </si>
-  <si>
-    <t>tx hash on that chain</t>
-  </si>
-  <si>
-    <t>chain id</t>
-  </si>
-  <si>
-    <t>tx hash on that chain	chain id</t>
+    <t>2054D13B1D7B1F75739AA8B1CC92A22C9092FA91733D74CC97384C8BE76AD736</t>
+  </si>
+  <si>
+    <t>stars1z8fty0fxx2z7q97wk9kea4hd0nczdshlnu8khykv7y0dcsurc2vq3629j5</t>
+  </si>
+  <si>
+    <t>elgafar-1</t>
+  </si>
+  <si>
+    <t>9CA89A28273ECBE708450313F13A7DF37C2EE09D75B5FE77387744C81B6DFF7E</t>
+  </si>
+  <si>
+    <t>ibc/2026C21DF5F008826982E4A8E644EDF181DB866232DD2A14780926A59E82920C</t>
+  </si>
+  <si>
+    <t>uptick_7000-2</t>
+  </si>
+  <si>
+    <t>1AEA95E5028F84B6BB7032E5125F5C4E52D135F6C0A95DCD8491D665F34FFD4A</t>
+  </si>
+  <si>
+    <t>E6D13D01CCE8ED07507129CEDC300C6EF2D37F4864FE76D4E1115D4E3B21E643</t>
+  </si>
+  <si>
+    <t>ibc/E4AA70FE5676239DFC5055C81DF13C8A6C2DEA47C661F2F1AB3A448C23EDD1C7</t>
+  </si>
+  <si>
+    <t>a7/a1</t>
+  </si>
+  <si>
+    <t>ibc/BD9AB7CAD9DA363BAD57BE0BC7E633B0E38A1C040164E1D5D0FD73CC6F8B8D7E</t>
+  </si>
+  <si>
+    <t>a8/a2</t>
+  </si>
+  <si>
+    <t>ibc/C8ED84B723C4643C5F55D8DC0AAF7EB87A2F1E1259F2A61F2F628F49D33ADDC6</t>
+  </si>
+  <si>
+    <t>a9/a3</t>
+  </si>
+  <si>
+    <t>ibc/F000EBB18322D1933FAAC760AD7533B9E72CADB02620BC05D9ED266DE70A620E</t>
+  </si>
+  <si>
+    <t>a10/a4</t>
+  </si>
+  <si>
+    <t>ibc/D38920B266703DE3A96A07CB933C3C1B66090B30C07A9886F64479DE92779EBC</t>
+  </si>
+  <si>
+    <t>a11/a5</t>
+  </si>
+  <si>
+    <t>ibc/E929134CC0296AEABB343A692C175E1CF4D963E8A45B5442D7128AD6BF0BBFEA</t>
+  </si>
+  <si>
+    <t>a12/a6</t>
+  </si>
+  <si>
+    <t>A92C750B421E9968EFDBE57850C0AB5EB41093C764AA0F37E3ADAA05ED915FC7</t>
+  </si>
+  <si>
+    <t>gon-irishub-1</t>
+  </si>
+  <si>
+    <t>56C62E3E1D75E4C2CA68016B77DF6B1AE3BEC0811F5615BCEBA18E04A5F6BF9D</t>
+  </si>
+  <si>
+    <t>4A08A16172E56F6B8CF03B7C98A8BC0A2B25357EB60D922E01135972882D6185</t>
+  </si>
+  <si>
+    <t>9F63964E33161A5F1DDA3DD66663924645C4C52EAC055AD25B9BB6B6B4FA8459</t>
+  </si>
+  <si>
+    <t>94E387FCC8113BCFF25A4E818E5CF164D6C79B6D0C67368DE9378619820367F7</t>
+  </si>
+  <si>
+    <t>2F66A712390E8340FFD7CCF5AC1E2D1D4EE5E841E42BF5B90CDBB145B73441C6</t>
+  </si>
+  <si>
+    <t>E2B4C99B59A19CD1ABEB8CE1EF516C36951372515644869C8508650A6CF7194D</t>
+  </si>
+  <si>
+    <t>gon-flixnet-1</t>
+  </si>
+  <si>
+    <t>3F63CCDF126F55193CDE7C2F3AE17BA26675754CFBC302A7C603DB2E7D868934</t>
+  </si>
+  <si>
+    <t>75780DA1D363B74B38942EFCBE04F2F356EED696EEED3616852112ABCF584104</t>
+  </si>
+  <si>
+    <t>E2C21C885466DA36D073C1D50BED506E8FFB34F30013A45DF7A38188464A86FA</t>
+  </si>
+  <si>
+    <t>uni-6</t>
+  </si>
+  <si>
+    <t>C9BEC5B998479C031184990FBB1D775A7B5E92CA50D29556C57CC1646DFD72CD</t>
+  </si>
+  <si>
+    <t>42C35F5B485B7D32FB1A4B123A485A50AE293F51E90967BAA0C85CCBE1F38FE0</t>
+  </si>
+  <si>
+    <t>ECDE30D4C3D818869BC58E881304710C69F3444A846CE52DCDB8040FF292017C</t>
+  </si>
+  <si>
+    <t>5E6ADE11EE3C97C717D777B60896DFEE011FDFD29F83FF49CE9D8F580494F2F3</t>
+  </si>
+  <si>
+    <t>A6FBF09BAF7A7262BF74FC499A83D3D08544927E230A766B53AE1AEE30BD4D61</t>
+  </si>
+  <si>
+    <t>5CB43828460217BAC90E40BB3DA993D9531206FCC7F8771EA16149F94F4BC2A5</t>
+  </si>
+  <si>
+    <t>D575E0F2F883BD6CDEE50BE8571AD2F427C9F438DDFB09B8EA8A2246D5679D05</t>
+  </si>
+  <si>
+    <t>E96B4B7E2913C9EBBAEC73B2B96F13B27C2EDF2FDE032F634F5F6E0C8925BEED</t>
+  </si>
+  <si>
+    <t>852147D4247550D99971672E81AFA4DDC1C4E895526A34C1D92E2BB72483159E</t>
+  </si>
+  <si>
+    <t>7EBA6559023D19AE0ED0AC267072F68DB9CA552551A447FA1045D4D93DA2FFCB</t>
+  </si>
+  <si>
+    <t>3D48DEE3C37C6F79D4747EF9E761531EEBA6A9A7774A25D5362EC44A1E205501</t>
+  </si>
+  <si>
+    <t>EC6409C63839BD44C40A8BC90B603D71CC27420A3892C9654A8749EDCC7A43F3</t>
+  </si>
+  <si>
+    <t>0B37695F8E9C1F7F149A3EFCABCA087E6F1572D9B57C783454122AFB504DE4FE</t>
+  </si>
+  <si>
+    <t>45CC8D60107CFC0C84FB98353E5A92E1EDEB80117919D39053F59F4D6D89294F</t>
+  </si>
+  <si>
+    <t>0D5073C88524E3A6AFD0D8968AFB670EC3A246DF1434DE1EE97D5848F403D671</t>
+  </si>
+  <si>
+    <t>70BAEEB620D273E0C945DEE0535ECDE1E25C695961FFC2E91FF42F3C459232C7</t>
+  </si>
+  <si>
+    <t>740C82BFA98F235D48EB411FE88E161EA30D8AAD3145A2FB7E8B98DBEA088D39</t>
+  </si>
+  <si>
+    <t>4DEBC66914645F9D5A3E4AD97A000D9C6D3B05602A91552D3B745F1A6F8DC66F</t>
+  </si>
+  <si>
+    <t>08337A246CFA68D32F2C54B0B6FC6BBFBEAE714F4F6FB263F360996DC9EDD731</t>
+  </si>
+  <si>
+    <t>0C884F5EC0C742F1E5B436AAFFD6B1C6CF637D1AC9C82F80D00ED2ED75D57C61</t>
+  </si>
+  <si>
+    <t>0F23068BF2DAE3123B023F41E3CF6AE21D0A116002F29F44E135C2FD78774A53</t>
+  </si>
+  <si>
+    <t>94FFCE29177A06EC1B3E8520AC881AF6C73E63EF656B9499DED89BF28D8FC01D</t>
+  </si>
+  <si>
+    <t>427A85FA318D2F19F8FC4E680F8C3F1FE4FE59DEB438809F10EFB9DBE43D2747</t>
+  </si>
+  <si>
+    <t>B9CE838F246EC30E9FB61490BBD4C0A44A7070B4485807267050C2EA3BB7974C</t>
+  </si>
+  <si>
+    <t>3A3069ED7FE7B0BCE061219A0C74C930A95522C2925C588D7D63ABB9CC888BF3</t>
+  </si>
+  <si>
+    <t>A20EF447119D18B29B41B6048F576583B2D3EE1BBCE30470B54ED0AC391B4083</t>
   </si>
   <si>
     <t>The first Interchain NFT-Transfer TxHash</t>
@@ -1139,8 +1301,8 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
@@ -1218,7 +1380,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1237,10 +1399,10 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1257,7 +1419,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1276,10 +1438,10 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1296,7 +1458,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1315,10 +1477,10 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1335,7 +1497,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1354,10 +1516,10 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1371,13 +1533,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.0083333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.4333333333333" style="1" customWidth="1"/>
@@ -1388,25 +1550,39 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:1">
+    </row>
+    <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>48</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1420,13 +1596,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.0083333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.4333333333333" style="1" customWidth="1"/>
@@ -1437,25 +1613,39 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:1">
+        <v>51</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>52</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1469,13 +1659,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.0083333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.4333333333333" style="1" customWidth="1"/>
@@ -1486,25 +1676,39 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:1">
+        <v>56</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>58</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1518,13 +1722,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.0083333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.4333333333333" style="1" customWidth="1"/>
@@ -1535,25 +1739,39 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A4" s="3" t="s">
-        <v>29</v>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1567,13 +1785,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.0083333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.4333333333333" style="1" customWidth="1"/>
@@ -1584,25 +1802,39 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:1">
+    </row>
+    <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>66</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1616,13 +1848,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.0083333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.4333333333333" style="1" customWidth="1"/>
@@ -1633,25 +1865,39 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:1">
+        <v>69</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>70</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1668,7 +1914,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1703,13 +1949,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.0083333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.4333333333333" style="1" customWidth="1"/>
@@ -1720,25 +1966,55 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:1">
+    </row>
+    <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>74</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1752,13 +2028,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.0083333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.4333333333333" style="1" customWidth="1"/>
@@ -1769,25 +2045,55 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A4" s="3" t="s">
-        <v>29</v>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1819,12 +2125,12 @@
     </row>
     <row r="2" ht="16.4" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1856,12 +2162,12 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1893,12 +2199,12 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1930,12 +2236,12 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1949,13 +2255,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="2" width="17.8583333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.0083333333333" style="1" customWidth="1"/>
@@ -1974,13 +2280,24 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1997,7 +2314,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2018,21 +2335,21 @@
         <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2049,7 +2366,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2070,21 +2387,21 @@
         <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2101,7 +2418,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2122,21 +2439,21 @@
         <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2153,7 +2470,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2175,21 +2492,21 @@
         <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2206,7 +2523,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -2225,10 +2542,10 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -2245,7 +2562,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -2264,10 +2581,10 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
